--- a/DMSNewVSale_2025-11-01_20-36.xlsx
+++ b/DMSNewVSale_2025-11-01_20-36.xlsx
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>0:4</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
   </si>
   <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
@@ -2015,7 +2024,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2025,14 +2034,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2041,14 +2050,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2058,11 +2067,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>15</v>
@@ -2074,14 +2083,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2091,11 +2100,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>15</v>
@@ -2107,14 +2116,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2124,11 +2133,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>15</v>
@@ -2140,14 +2149,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2180,7 +2189,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2190,14 +2199,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2227,10 +2236,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2239,14 +2248,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2256,14 +2265,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2272,14 +2281,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2296,7 +2305,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2345,24 +2354,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2371,20 +2380,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2411,7 +2420,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2444,7 +2453,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2454,14 +2463,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2470,14 +2479,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2503,14 +2512,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2520,14 +2529,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2543,24 +2552,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2569,31 +2578,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2602,14 +2611,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2619,14 +2628,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2642,7 +2651,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2652,14 +2661,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2675,7 +2684,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2692,7 +2701,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2708,7 +2717,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2718,7 +2727,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2751,7 +2760,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2774,7 +2783,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2784,14 +2793,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2800,31 +2809,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2840,24 +2849,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2866,14 +2875,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2883,14 +2892,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2923,7 +2932,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2939,7 +2948,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2965,14 +2974,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2989,7 +2998,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3005,7 +3014,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3022,7 +3031,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3038,7 +3047,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3048,14 +3057,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3064,14 +3073,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3081,7 +3090,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3104,7 +3113,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3121,7 +3130,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3137,7 +3146,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3170,7 +3179,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3203,7 +3212,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3220,7 +3229,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3236,7 +3245,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3253,7 +3262,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3269,7 +3278,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3286,7 +3295,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3302,7 +3311,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3319,7 +3328,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3335,7 +3344,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3345,14 +3354,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3361,14 +3370,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3401,7 +3410,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3411,14 +3420,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3434,7 +3443,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3444,14 +3453,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3460,31 +3469,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3500,21 +3509,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>15</v>
@@ -3526,14 +3535,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3543,11 +3552,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>15</v>
@@ -3583,7 +3592,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3599,7 +3608,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3616,7 +3625,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3632,7 +3641,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3642,11 +3651,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>15</v>
@@ -3665,7 +3674,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3675,14 +3684,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3691,7 +3700,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3708,14 +3717,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3724,7 +3733,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3741,11 +3750,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>15</v>
@@ -3757,14 +3766,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3774,11 +3783,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>15</v>
@@ -3797,7 +3806,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3807,11 +3816,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3823,14 +3832,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3863,7 +3872,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,7 +3905,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3922,14 +3931,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3939,11 +3948,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>15</v>
@@ -3962,7 +3971,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3979,7 +3988,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3995,7 +4004,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4021,14 +4030,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4038,11 +4047,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>15</v>
@@ -4054,14 +4063,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4071,11 +4080,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -4094,7 +4103,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4104,11 +4113,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -4120,14 +4129,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4137,14 +4146,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4153,14 +4162,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4177,7 +4186,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4193,7 +4202,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4203,11 +4212,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4219,14 +4228,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4236,14 +4245,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4252,14 +4261,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4292,24 +4301,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4318,14 +4327,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4335,14 +4344,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4351,7 +4360,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4364,18 +4373,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4391,7 +4400,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4401,14 +4410,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>249</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4417,14 +4426,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4434,14 +4443,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>19</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4450,14 +4459,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4474,7 +4483,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4490,7 +4499,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4500,14 +4509,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4516,14 +4525,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4533,14 +4542,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4556,7 +4565,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4566,11 +4575,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>15</v>
@@ -4582,14 +4591,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4599,14 +4608,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4615,14 +4624,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4648,14 +4657,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4688,7 +4697,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4702,10 +4711,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4714,14 +4723,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4731,14 +4740,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4747,14 +4756,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4787,7 +4796,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,7 +4829,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4830,14 +4839,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4846,14 +4855,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4863,14 +4872,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4879,7 +4888,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4900,10 +4909,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4912,14 +4921,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4929,14 +4938,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4945,14 +4954,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4962,14 +4971,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4978,14 +4987,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5002,7 +5011,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5018,7 +5027,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>291</v>
+        <v>62</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5028,14 +5037,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>294</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5044,14 +5053,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5061,14 +5070,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5077,14 +5086,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5094,14 +5103,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5110,14 +5119,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5127,14 +5136,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5150,13 +5159,13 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5167,7 +5176,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5183,7 +5192,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,7 +5225,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5226,14 +5235,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5242,14 +5251,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>72</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5259,11 +5268,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>11</v>
@@ -5292,14 +5301,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>53</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5308,14 +5317,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5325,11 +5334,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>15</v>
@@ -5348,7 +5357,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5362,10 +5371,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5374,14 +5383,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5391,14 +5400,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>322</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5407,14 +5416,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5424,14 +5433,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>325</v>
-      </c>
-      <c t="s" r="Q120" s="12">
-        <v>326</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5440,14 +5449,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5457,14 +5466,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>15</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5473,14 +5482,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5490,11 +5499,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>15</v>
@@ -5513,7 +5522,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>54</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5523,11 +5532,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>15</v>
@@ -5539,14 +5548,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5556,11 +5565,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>223</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>15</v>
@@ -5572,14 +5581,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5589,14 +5598,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>220</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5605,14 +5614,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5622,14 +5631,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>75</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5638,14 +5647,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5655,51 +5664,84 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" ht="25.5" customHeight="1">
-      <c r="N128" s="13">
-        <v>8100.8599999999997</v>
-      </c>
-      <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>341</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>342</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>343</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>197</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>34</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>306</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" ht="26.25" customHeight="1">
+      <c r="N129" s="13">
+        <v>8127.5900000000001</v>
+      </c>
+      <c r="O129" s="13"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>344</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>345</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>346</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6313,10 +6355,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="N129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
